--- a/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20171022-Haddad.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20171022-Haddad.xlsx
@@ -590,49 +590,49 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>3.04</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>55.17241379</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>44.82758621</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>11.84210526</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>14.47368421</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>19.73684211</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>17.76315789</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>36.18421053</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>43.56435644</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>39.6039604</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>16.83168317</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>13.70716511</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>60.74766355</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>16.19937695</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>9.345794393</v>
       </c>
     </row>
     <row r="11">
